--- a/fact.xlsx
+++ b/fact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/lll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/lll/prj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A9D3C0-CE49-C346-A801-AF5BE56A48B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D2F2E-0A88-4B4E-AF6E-649397081B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1500" windowWidth="19420" windowHeight="10420" xr2:uid="{40D29459-67CB-4777-BF08-FB829EED8BFA}"/>
+    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="10420" xr2:uid="{40D29459-67CB-4777-BF08-FB829EED8BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>вода</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>сэндвич</t>
+  </si>
+  <si>
+    <t>капучино</t>
+  </si>
+  <si>
+    <t>латте</t>
+  </si>
+  <si>
+    <t>раф</t>
   </si>
 </sst>
 </file>
@@ -400,20 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF70633E-142B-8E4F-A694-A2BD26F9CAE7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -421,10 +430,10 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -434,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -455,6 +464,30 @@
       </c>
       <c r="B5" s="3">
         <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
